--- a/target/classes/com/qa/hubspot/testdata/HubSpotTestData.xlsx
+++ b/target/classes/com/qa/hubspot/testdata/HubSpotTestData.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NaveenKhunteta/Documents/workspace/May2020POMSeries/src/main/java/com/qa/hubspot/testdata/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4A7F52C6-5E04-4F0E-BB15-741686CAB87F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1120" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="20790" windowHeight="11820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
+    <sheet name="login" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1:F10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>emailid</t>
   </si>
@@ -87,12 +82,24 @@
   </si>
   <si>
     <t>Director</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>mtolapu@gmail.com</t>
+  </si>
+  <si>
+    <t>Maheish71</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -139,10 +146,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -153,6 +162,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,19 +432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -446,7 +458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,7 +472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -474,7 +486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -488,7 +500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -504,10 +516,48 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F23A14A5-6B7D-4E22-919F-493B1B23574B}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{F53D872A-0FE6-4325-B522-8FA46C4D7A9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
